--- a/data/trans_orig/P19C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>117288</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>98784</v>
+        <v>98790</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>138681</v>
+        <v>140892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1701386680790248</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1432964776370154</v>
+        <v>0.1433054458994262</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2011716861937835</v>
+        <v>0.2043790254537866</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -765,19 +765,19 @@
         <v>159582</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137723</v>
+        <v>138681</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184281</v>
+        <v>182148</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1664119890056901</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1436174657612591</v>
+        <v>0.1446158724117356</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1921674036587891</v>
+        <v>0.1899439257739369</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>270</v>
@@ -786,19 +786,19 @@
         <v>276870</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>249846</v>
+        <v>245272</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>306558</v>
+        <v>306402</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1679705680932639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1515758453701385</v>
+        <v>0.1488006803082139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1859813777409432</v>
+        <v>0.1858872318399102</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>572077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>550684</v>
+        <v>548473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>590581</v>
+        <v>590575</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8298613319209752</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7988283138062166</v>
+        <v>0.7956209745462136</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8567035223629847</v>
+        <v>0.8566945541005738</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>791</v>
@@ -836,19 +836,19 @@
         <v>799377</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>774678</v>
+        <v>776811</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>821236</v>
+        <v>820278</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8335880109943099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8078325963412104</v>
+        <v>0.8100560742260631</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8563825342387407</v>
+        <v>0.8553841275882644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1373</v>
@@ -857,19 +857,19 @@
         <v>1371454</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1341766</v>
+        <v>1341922</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1398478</v>
+        <v>1403052</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8320294319067361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8140186222590567</v>
+        <v>0.8141127681600899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8484241546298615</v>
+        <v>0.8511993196917865</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>404074</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>369909</v>
+        <v>369767</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>439129</v>
+        <v>435832</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3074098260411946</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2814174809159101</v>
+        <v>0.2813098397036284</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3340783783993049</v>
+        <v>0.331570096634345</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>450</v>
@@ -982,19 +982,19 @@
         <v>462371</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>426955</v>
+        <v>426482</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>496860</v>
+        <v>495807</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3374311822112935</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3115851257646962</v>
+        <v>0.3112403519531166</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3626005685791934</v>
+        <v>0.3618321662609753</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>844</v>
@@ -1003,19 +1003,19 @@
         <v>866445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>821091</v>
+        <v>818007</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>915232</v>
+        <v>914947</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.322732597759037</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3058390418660209</v>
+        <v>0.3046905572300005</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3409047636918914</v>
+        <v>0.3407985637622135</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>910374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>875319</v>
+        <v>878616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>944539</v>
+        <v>944681</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6925901739588054</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6659216216006951</v>
+        <v>0.6684299033656552</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7185825190840899</v>
+        <v>0.7186901602963716</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>891</v>
@@ -1053,19 +1053,19 @@
         <v>907896</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>873407</v>
+        <v>874460</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>943312</v>
+        <v>943785</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6625688177887066</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6373994314208066</v>
+        <v>0.6381678337390246</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6884148742353039</v>
+        <v>0.6887596480468835</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1778</v>
@@ -1074,19 +1074,19 @@
         <v>1818270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1769483</v>
+        <v>1769768</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1863624</v>
+        <v>1866708</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.677267402240963</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6590952363081086</v>
+        <v>0.6592014362377866</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.694160958133979</v>
+        <v>0.6953094427699995</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>181081</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>158291</v>
+        <v>159347</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202143</v>
+        <v>202416</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4015736394830751</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3510332838349172</v>
+        <v>0.3533759251199301</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4482820083620341</v>
+        <v>0.448887258817887</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -1199,19 +1199,19 @@
         <v>174933</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156285</v>
+        <v>154730</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>198018</v>
+        <v>194256</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4279354831895679</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.382318634747755</v>
+        <v>0.3785130701074895</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4844078045485642</v>
+        <v>0.4752049321608834</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>339</v>
@@ -1220,19 +1220,19 @@
         <v>356014</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>327053</v>
+        <v>324854</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>386252</v>
+        <v>384256</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4141083965063963</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3804210199162585</v>
+        <v>0.3778635564095625</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4492809132970056</v>
+        <v>0.4469593764322108</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>269848</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>248786</v>
+        <v>248513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>292638</v>
+        <v>291582</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5984263605169249</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5517179916379663</v>
+        <v>0.5511127411821131</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6489667161650827</v>
+        <v>0.64662407488007</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>220</v>
@@ -1270,19 +1270,19 @@
         <v>233850</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>210765</v>
+        <v>214527</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>252498</v>
+        <v>254053</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5720645168104321</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5155921954514359</v>
+        <v>0.5247950678391167</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6176813652522452</v>
+        <v>0.621486929892511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>479</v>
@@ -1291,19 +1291,19 @@
         <v>503698</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>473460</v>
+        <v>475456</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>532659</v>
+        <v>534858</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5858916034936037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5507190867029943</v>
+        <v>0.5530406235677893</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6195789800837416</v>
+        <v>0.6221364435904376</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>702443</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>657263</v>
+        <v>653268</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>748181</v>
+        <v>747524</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.286157556173239</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2677525109718834</v>
+        <v>0.2661250448433759</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3047898823876637</v>
+        <v>0.3045224584705804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>774</v>
@@ -1416,19 +1416,19 @@
         <v>796886</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>751906</v>
+        <v>750213</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>842620</v>
+        <v>842921</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2910457493136153</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2746177180439938</v>
+        <v>0.2739993273582496</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3077489944745603</v>
+        <v>0.3078592766871914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1453</v>
@@ -1437,19 +1437,19 @@
         <v>1499329</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1428846</v>
+        <v>1435999</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1563640</v>
+        <v>1565475</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2887349793938603</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2751616476731209</v>
+        <v>0.2765391479678251</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3011198085807689</v>
+        <v>0.3014732337399176</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1752299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1706561</v>
+        <v>1707218</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1797479</v>
+        <v>1801474</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.713842443826761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6952101176123363</v>
+        <v>0.6954775415294197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7322474890281166</v>
+        <v>0.7338749551566242</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1902</v>
@@ -1487,19 +1487,19 @@
         <v>1941123</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1895389</v>
+        <v>1895088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1986103</v>
+        <v>1987796</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7089542506863847</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6922510055254396</v>
+        <v>0.6921407233128085</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7253822819560062</v>
+        <v>0.7260006726417502</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3630</v>
@@ -1508,19 +1508,19 @@
         <v>3693421</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3629110</v>
+        <v>3627275</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3763904</v>
+        <v>3756751</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7112650206061397</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6988801914192303</v>
+        <v>0.6985267662600824</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7248383523268791</v>
+        <v>0.7234608520321749</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>118304</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100674</v>
+        <v>100303</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>140913</v>
+        <v>142719</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1522355830911193</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1295491125059784</v>
+        <v>0.1290713017400477</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1813287273107795</v>
+        <v>0.1836526071137985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>220</v>
@@ -1872,19 +1872,19 @@
         <v>236464</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>210578</v>
+        <v>205313</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>265888</v>
+        <v>264870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2093927028576399</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1864700613874443</v>
+        <v>0.1818082100179177</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2354482989461556</v>
+        <v>0.2345464969568293</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>332</v>
@@ -1893,19 +1893,19 @@
         <v>354768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>321184</v>
+        <v>323554</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>392656</v>
+        <v>393714</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1860934826136728</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1684771051949398</v>
+        <v>0.169719963346146</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2059678039382584</v>
+        <v>0.206522392798505</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>658809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>636200</v>
+        <v>634394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>676439</v>
+        <v>676810</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8477644169088807</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8186712726892202</v>
+        <v>0.8163473928862015</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.870450887494021</v>
+        <v>0.8709286982599523</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>833</v>
@@ -1943,19 +1943,19 @@
         <v>892820</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>863396</v>
+        <v>864414</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>918706</v>
+        <v>923971</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7906072971423601</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7645517010538444</v>
+        <v>0.7654535030431706</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8135299386125557</v>
+        <v>0.8181917899820823</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1452</v>
@@ -1964,19 +1964,19 @@
         <v>1551629</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1513741</v>
+        <v>1512683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1585213</v>
+        <v>1582843</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8139065173863271</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7940321960617416</v>
+        <v>0.793477607201495</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8315228948050601</v>
+        <v>0.8302800366538539</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>561373</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>524107</v>
+        <v>515795</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>599612</v>
+        <v>603073</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3327077011919649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3106211493419593</v>
+        <v>0.3056952149416285</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3553709524203464</v>
+        <v>0.3574216427577205</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>529</v>
@@ -2089,19 +2089,19 @@
         <v>568515</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>529775</v>
+        <v>524973</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>610180</v>
+        <v>607572</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3572833508417953</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3329369726310277</v>
+        <v>0.329919082021235</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3834677836919069</v>
+        <v>0.3818285657121108</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1064</v>
@@ -2110,19 +2110,19 @@
         <v>1129888</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1070795</v>
+        <v>1076157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1184882</v>
+        <v>1182587</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.344635458828996</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3266111019116658</v>
+        <v>0.3282466197759615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3614096650299967</v>
+        <v>0.3607096504341362</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1125913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1087674</v>
+        <v>1084213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1163179</v>
+        <v>1171491</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6672922988080351</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6446290475796549</v>
+        <v>0.6425783572422795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6893788506580408</v>
+        <v>0.6943047850583716</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>949</v>
@@ -2160,19 +2160,19 @@
         <v>1022701</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>981036</v>
+        <v>983644</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1061441</v>
+        <v>1066243</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6427166491582047</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6165322163080932</v>
+        <v>0.6181714342878891</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6670630273689724</v>
+        <v>0.6700809179787649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2010</v>
@@ -2181,19 +2181,19 @@
         <v>2148614</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2093620</v>
+        <v>2095915</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2207707</v>
+        <v>2202345</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.655364541171004</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6385903349700033</v>
+        <v>0.6392903495658635</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6733888980883341</v>
+        <v>0.6717533802240385</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>182204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160469</v>
+        <v>161488</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204447</v>
+        <v>205212</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4121001882703618</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3629425125125191</v>
+        <v>0.3652462985504845</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4624101289187994</v>
+        <v>0.4641392407517373</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>163</v>
@@ -2306,19 +2306,19 @@
         <v>177188</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156271</v>
+        <v>157478</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>198371</v>
+        <v>198172</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4181688721939754</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3688051479098243</v>
+        <v>0.371652121653009</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4681612727523027</v>
+        <v>0.4676933075007448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>328</v>
@@ -2327,19 +2327,19 @@
         <v>359391</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>326950</v>
+        <v>330124</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>389468</v>
+        <v>392247</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4150700100939055</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3776022901601602</v>
+        <v>0.3812683735407101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4498058625969386</v>
+        <v>0.4530163386252888</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>259930</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>237687</v>
+        <v>236922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281665</v>
+        <v>280646</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5878998117296382</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5375898710812006</v>
+        <v>0.5358607592482626</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6370574874874809</v>
+        <v>0.6347537014495155</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>219</v>
@@ -2377,19 +2377,19 @@
         <v>246535</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225352</v>
+        <v>225551</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>267452</v>
+        <v>266245</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5818311278060246</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5318387272476972</v>
+        <v>0.5323066924992552</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6311948520901758</v>
+        <v>0.628347878346991</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>455</v>
@@ -2398,19 +2398,19 @@
         <v>506466</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>476389</v>
+        <v>473610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>538907</v>
+        <v>535733</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5849299899060945</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5501941374030613</v>
+        <v>0.546983661374711</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6223977098398397</v>
+        <v>0.6187316264592898</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>861881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>806735</v>
+        <v>817072</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>914038</v>
+        <v>914323</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2965322420743433</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2775593417707934</v>
+        <v>0.2811156760885401</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3144772117391921</v>
+        <v>0.3145751389782563</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>912</v>
@@ -2523,19 +2523,19 @@
         <v>982167</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>928588</v>
+        <v>931259</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1034234</v>
+        <v>1035890</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.312371820029016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2953315907353906</v>
+        <v>0.2961810720893196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3289315094934359</v>
+        <v>0.3294580311097358</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1724</v>
@@ -2544,19 +2544,19 @@
         <v>1844047</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1773759</v>
+        <v>1766517</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1928577</v>
+        <v>1918378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3047631417505178</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2931466046739539</v>
+        <v>0.291949859462585</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3187331853785635</v>
+        <v>0.3170477162984193</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2044652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1992495</v>
+        <v>1992210</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2099798</v>
+        <v>2089461</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7034677579256566</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6855227882608079</v>
+        <v>0.6854248610217437</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7224406582292067</v>
+        <v>0.7188843239114601</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2001</v>
@@ -2594,19 +2594,19 @@
         <v>2162056</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2109989</v>
+        <v>2108333</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2215635</v>
+        <v>2212964</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.687628179970984</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6710684905065641</v>
+        <v>0.6705419688902642</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7046684092646094</v>
+        <v>0.7038189279106805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3917</v>
@@ -2615,19 +2615,19 @@
         <v>4206709</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4122179</v>
+        <v>4132378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4276997</v>
+        <v>4284239</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6952368582494822</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6812668146214366</v>
+        <v>0.6829522837015811</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7068533953260462</v>
+        <v>0.7080501405374152</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>93699</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77190</v>
+        <v>77224</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111871</v>
+        <v>109099</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2048425192740982</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1687514448889972</v>
+        <v>0.1688252232044654</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2445701791158929</v>
+        <v>0.2385102530876458</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -2979,19 +2979,19 @@
         <v>159979</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>140395</v>
+        <v>138924</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>183683</v>
+        <v>183023</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2504076418782775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2197542524583468</v>
+        <v>0.2174509142808492</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2875111180833158</v>
+        <v>0.2864773776705578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>248</v>
@@ -3000,19 +3000,19 @@
         <v>253678</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>230173</v>
+        <v>226565</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>285965</v>
+        <v>281936</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2313959776244422</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2099556955443166</v>
+        <v>0.2066646642051005</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2608471245414833</v>
+        <v>0.2571725046194681</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>363720</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>345548</v>
+        <v>348320</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>380229</v>
+        <v>380195</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7951574807259019</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.755429820884107</v>
+        <v>0.7614897469123547</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8312485551110028</v>
+        <v>0.8311747767955348</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>430</v>
@@ -3050,19 +3050,19 @@
         <v>478895</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>455191</v>
+        <v>455851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>498479</v>
+        <v>499950</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7495923581217225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7124888819166844</v>
+        <v>0.7135226223294423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7802457475416533</v>
+        <v>0.7825490857191509</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>795</v>
@@ -3071,19 +3071,19 @@
         <v>842615</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>810328</v>
+        <v>814357</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>866120</v>
+        <v>869728</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7686040223755578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7391528754585168</v>
+        <v>0.7428274953805319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7900443044556837</v>
+        <v>0.7933353357948997</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>594671</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>554981</v>
+        <v>557417</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>632234</v>
+        <v>636077</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3505061810410432</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3271124464134831</v>
+        <v>0.3285483628061881</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3726468010273665</v>
+        <v>0.3749118412034884</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>646</v>
@@ -3196,19 +3196,19 @@
         <v>673688</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>631648</v>
+        <v>633967</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>713535</v>
+        <v>716571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3942650975904564</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3696616821219841</v>
+        <v>0.3710191424083612</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4175846268625588</v>
+        <v>0.4193612328863472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1212</v>
@@ -3217,19 +3217,19 @@
         <v>1268359</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1206355</v>
+        <v>1214134</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1329480</v>
+        <v>1324257</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3724634697021071</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3542557087578808</v>
+        <v>0.3565398707895996</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3904121658746852</v>
+        <v>0.3888784712740296</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1101934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1064371</v>
+        <v>1060528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1141624</v>
+        <v>1139188</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6494938189589569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6273531989726334</v>
+        <v>0.6250881587965116</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6728875535865166</v>
+        <v>0.6714516371938118</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1000</v>
@@ -3267,19 +3267,19 @@
         <v>1035031</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>995184</v>
+        <v>992148</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1077071</v>
+        <v>1074752</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6057349024095435</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5824153731374413</v>
+        <v>0.5806387671136527</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.630338317878016</v>
+        <v>0.6289808575916388</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2033</v>
@@ -3288,19 +3288,19 @@
         <v>2136965</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2075844</v>
+        <v>2081067</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2198969</v>
+        <v>2191190</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6275365302978928</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6095878341253148</v>
+        <v>0.6111215287259704</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6457442912421193</v>
+        <v>0.6434601292104005</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>238068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>216910</v>
+        <v>215009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>261309</v>
+        <v>260951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4768562290216924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4344777315987426</v>
+        <v>0.4306690720314371</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5234090764107878</v>
+        <v>0.5226932058847173</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>222</v>
@@ -3413,19 +3413,19 @@
         <v>230597</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>207182</v>
+        <v>210112</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>255113</v>
+        <v>255972</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4536448283199007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4075813802728731</v>
+        <v>0.4133467014647548</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5018739328589584</v>
+        <v>0.5035652909083533</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>442</v>
@@ -3434,19 +3434,19 @@
         <v>468664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>437978</v>
+        <v>436444</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>503080</v>
+        <v>502542</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.465145993122035</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4346900022379952</v>
+        <v>0.4331676866655284</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4993033489797984</v>
+        <v>0.4987693731791797</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>261176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>237935</v>
+        <v>238293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>282334</v>
+        <v>284235</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5231437709783076</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4765909235892123</v>
+        <v>0.4773067941152827</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5655222684012574</v>
+        <v>0.5693309279685626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -3484,19 +3484,19 @@
         <v>277723</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>253207</v>
+        <v>252348</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>301138</v>
+        <v>298208</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5463551716800993</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4981260671410416</v>
+        <v>0.4964347090916468</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5924186197271271</v>
+        <v>0.5866532985352453</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>505</v>
@@ -3505,19 +3505,19 @@
         <v>538900</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>504484</v>
+        <v>505022</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>569586</v>
+        <v>571120</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.534854006877965</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5006966510202018</v>
+        <v>0.5012306268208204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5653099977620049</v>
+        <v>0.5668323133344716</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>926437</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>879313</v>
+        <v>876391</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>977953</v>
+        <v>970212</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3491682819004647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3314072754750248</v>
+        <v>0.33030613685524</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3685842331304623</v>
+        <v>0.3656668050253875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1020</v>
@@ -3630,19 +3630,19 @@
         <v>1064264</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1015776</v>
+        <v>1010622</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1117342</v>
+        <v>1119764</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3726527675191659</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3556747534098781</v>
+        <v>0.353870169608831</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3912379662964011</v>
+        <v>0.3920861185083646</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1902</v>
@@ -3651,19 +3651,19 @@
         <v>1990701</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1915555</v>
+        <v>1918950</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2063240</v>
+        <v>2061423</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3613424390067843</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3477022876461561</v>
+        <v>0.3483184431925909</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3745093128529318</v>
+        <v>0.3741795665220978</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1726832</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1675316</v>
+        <v>1683057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1773956</v>
+        <v>1776878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6508317180995352</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6314157668695376</v>
+        <v>0.6343331949746122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6685927245249752</v>
+        <v>0.6696938631447599</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1696</v>
@@ -3701,19 +3701,19 @@
         <v>1791649</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1738571</v>
+        <v>1736149</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1840137</v>
+        <v>1845291</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6273472324808341</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6087620337035992</v>
+        <v>0.6079138814916355</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6443252465901221</v>
+        <v>0.6461298303911691</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3333</v>
@@ -3722,19 +3722,19 @@
         <v>3518481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3445942</v>
+        <v>3447759</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3593627</v>
+        <v>3590232</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6386575609932157</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6254906871470681</v>
+        <v>0.6258204334779023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6522977123538439</v>
+        <v>0.6516815568074091</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>123220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>104635</v>
+        <v>105156</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143334</v>
+        <v>143851</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2293411295475989</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1947494975144934</v>
+        <v>0.1957201613132449</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2667783123875356</v>
+        <v>0.2677391129419254</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>428</v>
@@ -4086,19 +4086,19 @@
         <v>258560</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>237333</v>
+        <v>237234</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>281200</v>
+        <v>278836</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3295465671969257</v>
+        <v>0.3295465671969258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3024917762749296</v>
+        <v>0.3023665098601824</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3584026547544185</v>
+        <v>0.3553901445898887</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>564</v>
@@ -4107,19 +4107,19 @@
         <v>381780</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>353950</v>
+        <v>353760</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>412548</v>
+        <v>410903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.288817734436397</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2677645330060368</v>
+        <v>0.2676209412126279</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3120939290927863</v>
+        <v>0.3108491787441996</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>414059</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>393945</v>
+        <v>393428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>432644</v>
+        <v>432123</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7706588704524011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7332216876124644</v>
+        <v>0.7322608870580745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8052505024855066</v>
+        <v>0.804279838686755</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>942</v>
@@ -4157,19 +4157,19 @@
         <v>526032</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>503392</v>
+        <v>505756</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>547259</v>
+        <v>547358</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6704534328030743</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.641597345245582</v>
+        <v>0.6446098554101113</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6975082237250708</v>
+        <v>0.6976334901398178</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1454</v>
@@ -4178,19 +4178,19 @@
         <v>940091</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>909323</v>
+        <v>910968</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>967921</v>
+        <v>968111</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7111822655636031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6879060709072138</v>
+        <v>0.6891508212558004</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7322354669939636</v>
+        <v>0.7323790587873722</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>1053711</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>999684</v>
+        <v>1001166</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1104186</v>
+        <v>1108729</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4911131030378861</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4659325970809028</v>
+        <v>0.4666231995608029</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5146387087718169</v>
+        <v>0.516755940177721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1512</v>
@@ -4303,19 +4303,19 @@
         <v>1090849</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1046199</v>
+        <v>1048779</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1134767</v>
+        <v>1131965</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5168450091175731</v>
+        <v>0.5168450091175733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4956898694689759</v>
+        <v>0.4969123302515687</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5376534083808117</v>
+        <v>0.536325776545388</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2446</v>
@@ -4324,19 +4324,19 @@
         <v>2144560</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2075952</v>
+        <v>2082709</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2212106</v>
+        <v>2220718</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5038733608116491</v>
+        <v>0.5038733608116492</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4877536978040442</v>
+        <v>0.4893413310644759</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5197435893256894</v>
+        <v>0.5217671063225225</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1091845</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1041370</v>
+        <v>1036827</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1145872</v>
+        <v>1144390</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5088868969621139</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4853612912281829</v>
+        <v>0.4832440598222789</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.534067402919097</v>
+        <v>0.5333768004391966</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1337</v>
@@ -4374,19 +4374,19 @@
         <v>1019743</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>975825</v>
+        <v>978627</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1064393</v>
+        <v>1061813</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4831549908824267</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4623465916191882</v>
+        <v>0.463674223454612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5043101305310241</v>
+        <v>0.5030876697484313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2325</v>
@@ -4395,19 +4395,19 @@
         <v>2111588</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2044042</v>
+        <v>2035430</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2180196</v>
+        <v>2173439</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4961266391883508</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4802564106743103</v>
+        <v>0.4782328936774786</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5122463021959557</v>
+        <v>0.5106586689355244</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>418958</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>390772</v>
+        <v>390624</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>447595</v>
+        <v>449187</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.596132326904939</v>
+        <v>0.5961323269049391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5560267130121871</v>
+        <v>0.5558172308410402</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6368805481096937</v>
+        <v>0.6391459433077568</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>574</v>
@@ -4520,19 +4520,19 @@
         <v>412196</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>387979</v>
+        <v>389364</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>435319</v>
+        <v>434707</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5690064657891756</v>
+        <v>0.5690064657891755</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5355772969091009</v>
+        <v>0.5374883602634393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6009267701928185</v>
+        <v>0.6000823572076821</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>971</v>
@@ -4541,19 +4541,19 @@
         <v>831153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>792233</v>
+        <v>792512</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>870149</v>
+        <v>870332</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5823639329870182</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.555093957366782</v>
+        <v>0.5552893457993474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6096869925282991</v>
+        <v>0.6098149582840543</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>283835</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>255198</v>
+        <v>253606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312021</v>
+        <v>312169</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4038676730950609</v>
+        <v>0.4038676730950611</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3631194518903061</v>
+        <v>0.3608540566922433</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4439732869878131</v>
+        <v>0.4441827691589599</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>414</v>
@@ -4591,19 +4591,19 @@
         <v>312217</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289094</v>
+        <v>289706</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>336434</v>
+        <v>335049</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4309935342108244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3990732298071817</v>
+        <v>0.3999176427923179</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4644227030908991</v>
+        <v>0.4625116397365607</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>688</v>
@@ -4612,19 +4612,19 @@
         <v>596053</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>557057</v>
+        <v>556874</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>634973</v>
+        <v>634694</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4176360670129818</v>
+        <v>0.4176360670129817</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3903130074717011</v>
+        <v>0.3901850417159458</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4449060426332181</v>
+        <v>0.4447106542006524</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1595888</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1527530</v>
+        <v>1528878</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1658342</v>
+        <v>1664215</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4713714729108468</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4511806339880742</v>
+        <v>0.4515789907542994</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4898180374683536</v>
+        <v>0.4915528040350741</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2514</v>
@@ -4737,19 +4737,19 @@
         <v>1761604</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1707027</v>
+        <v>1705670</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1811056</v>
+        <v>1812444</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.486685176935344</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4716069620254598</v>
+        <v>0.4712320009460235</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5003474720848543</v>
+        <v>0.5007308655279373</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3981</v>
@@ -4758,19 +4758,19 @@
         <v>3357493</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3274191</v>
+        <v>3278679</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3438423</v>
+        <v>3446444</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4792840578972291</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4673927521045247</v>
+        <v>0.4680333068245526</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4908369758367724</v>
+        <v>0.4919818698838823</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1789740</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1727286</v>
+        <v>1721413</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1858098</v>
+        <v>1856750</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5286285270891531</v>
+        <v>0.5286285270891532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5101819625316465</v>
+        <v>0.5084471959649258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5488193660119258</v>
+        <v>0.5484210092457006</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2693</v>
@@ -4808,19 +4808,19 @@
         <v>1857993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1808541</v>
+        <v>1807153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1912570</v>
+        <v>1913927</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5133148230646563</v>
+        <v>0.5133148230646561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4996525279151455</v>
+        <v>0.4992691344720626</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5283930379745401</v>
+        <v>0.5287679990539766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4467</v>
@@ -4829,19 +4829,19 @@
         <v>3647732</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3566802</v>
+        <v>3558781</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3731034</v>
+        <v>3726546</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5207159421027711</v>
+        <v>0.5207159421027709</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5091630241632277</v>
+        <v>0.5080181301161177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5326072478954753</v>
+        <v>0.5319666931754475</v>
       </c>
     </row>
     <row r="15">
